--- a/data/Relatorio.xlsx
+++ b/data/Relatorio.xlsx
@@ -73,7 +73,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>8.51536681033E13</v>
+        <v>1.426991075631E14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -85,28 +85,28 @@
         <v>2</v>
       </c>
       <c r="E1" t="n">
-        <v>9.33812208533888</v>
+        <v>3.7564655436313066</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9325608788723875</v>
+        <v>0.7258294543785309</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9325608788723875</v>
+        <v>0.7258294543785309</v>
       </c>
       <c r="H1" t="n">
-        <v>2645.337951555743</v>
+        <v>1481.8921390606629</v>
       </c>
       <c r="I1" t="n">
         <v>2.0</v>
       </c>
       <c r="J1" t="n">
-        <v>8293.854810296694</v>
+        <v>4646.0238940235495</v>
       </c>
       <c r="K1" t="n">
-        <v>-74.96740235321748</v>
+        <v>-74.96758719227157</v>
       </c>
       <c r="L1" t="n">
-        <v>40.02175569829793</v>
+        <v>40.02184496236078</v>
       </c>
     </row>
   </sheetData>

--- a/data/Relatorio.xlsx
+++ b/data/Relatorio.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="00" r:id="rId3" sheetId="1"/>
+    <sheet name="1" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="23">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -64,6 +65,24 @@
   <si>
     <t>15240255#3</t>
   </si>
+  <si>
+    <t>15240255#4</t>
+  </si>
+  <si>
+    <t>:148823588_0</t>
+  </si>
+  <si>
+    <t>795084572#0</t>
+  </si>
+  <si>
+    <t>795084572#1</t>
+  </si>
+  <si>
+    <t>:148823589_0</t>
+  </si>
+  <si>
+    <t>795084572#2</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,7 +172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.464043164628E14</v>
+        <v>1.473621498007E14</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -165,7 +184,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6152738900089452</v>
+        <v>0.7310212395226592</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -174,24 +193,24 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1028.8394604259106</v>
+        <v>946.1954841343191</v>
       </c>
       <c r="I2" t="n">
         <v>2.0</v>
       </c>
       <c r="J2" t="n">
-        <v>3225.529345075495</v>
+        <v>2966.400146375088</v>
       </c>
       <c r="K2" t="n">
-        <v>-74.96787151295193</v>
+        <v>-74.9678743555802</v>
       </c>
       <c r="L2" t="n">
-        <v>40.01181365014323</v>
+        <v>40.011809480660816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.464074733077E14</v>
+        <v>1.473650345102E14</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -203,33 +222,33 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.723876756116567</v>
+        <v>2.017875951713415</v>
       </c>
       <c r="F3" t="n">
-        <v>1.379016158702217</v>
+        <v>0.9061578678150595</v>
       </c>
       <c r="G3" t="n">
-        <v>1.379016158702217</v>
+        <v>0.9061578678150595</v>
       </c>
       <c r="H3" t="n">
-        <v>1060.9918603067374</v>
+        <v>1099.8378551774767</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
       </c>
       <c r="J3" t="n">
-        <v>3326.3540570399564</v>
+        <v>3448.137962757328</v>
       </c>
       <c r="K3" t="n">
-        <v>-74.96786401806949</v>
+        <v>-74.96786943065852</v>
       </c>
       <c r="L3" t="n">
-        <v>40.01182464341344</v>
+        <v>40.01181670438916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.464095123638E14</v>
+        <v>1.473670692274E14</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -241,33 +260,33 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3.40615113472222</v>
+        <v>2.723876756116567</v>
       </c>
       <c r="F4" t="n">
-        <v>1.2667157290378395</v>
+        <v>0.9958858931492379</v>
       </c>
       <c r="G4" t="n">
-        <v>1.2667157290378395</v>
+        <v>0.9958858931492379</v>
       </c>
       <c r="H4" t="n">
-        <v>1156.8198835804822</v>
+        <v>1060.9918603067374</v>
       </c>
       <c r="I4" t="n">
         <v>2.0</v>
       </c>
       <c r="J4" t="n">
-        <v>3626.8149083084218</v>
+        <v>3326.3540570399564</v>
       </c>
       <c r="K4" t="n">
-        <v>-74.96785713353393</v>
+        <v>-74.96786401806949</v>
       </c>
       <c r="L4" t="n">
-        <v>40.01183474144505</v>
+        <v>40.01182464341344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.464115515049E14</v>
+        <v>1.473690964259E14</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -279,33 +298,33 @@
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>4.151466343746341</v>
+        <v>3.40615113472222</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5429005137483474</v>
+        <v>1.2667157290378395</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5429005137483474</v>
+        <v>1.2667157290378395</v>
       </c>
       <c r="H5" t="n">
-        <v>1338.4401247037827</v>
+        <v>1156.8198835804822</v>
       </c>
       <c r="I5" t="n">
         <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>4196.2618373179275</v>
+        <v>3626.8149083084218</v>
       </c>
       <c r="K5" t="n">
-        <v>-74.96784874794781</v>
+        <v>-74.96785713353393</v>
       </c>
       <c r="L5" t="n">
-        <v>40.01184704117287</v>
+        <v>40.01183474144505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.464135858622E14</v>
+        <v>1.473711171713E14</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -317,33 +336,33 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>4.8374601679004785</v>
+        <v>4.151466343746341</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8407635985236526</v>
+        <v>1.5429005137483474</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8407635985236526</v>
+        <v>1.5429005137483474</v>
       </c>
       <c r="H6" t="n">
-        <v>1277.9050359849532</v>
+        <v>1338.4401247037827</v>
       </c>
       <c r="I6" t="n">
         <v>2.0</v>
       </c>
       <c r="J6" t="n">
-        <v>4006.474070266436</v>
+        <v>4196.2618373179275</v>
       </c>
       <c r="K6" t="n">
-        <v>-74.9678387434905</v>
+        <v>-74.96784874794781</v>
       </c>
       <c r="L6" t="n">
-        <v>40.01186171541273</v>
+        <v>40.01184704117287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.46415624608E14</v>
+        <v>1.47373161566E14</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -355,33 +374,33 @@
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>5.552225570596106</v>
+        <v>4.8374601679004785</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1069589976937024</v>
+        <v>1.8407635985236526</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1069589976937024</v>
+        <v>1.8407635985236526</v>
       </c>
       <c r="H7" t="n">
-        <v>1631.5825076784515</v>
+        <v>1277.9050359849532</v>
       </c>
       <c r="I7" t="n">
         <v>2.0</v>
       </c>
       <c r="J7" t="n">
-        <v>5115.373350550184</v>
+        <v>4006.474070266436</v>
       </c>
       <c r="K7" t="n">
-        <v>-74.96782729227405</v>
+        <v>-74.9678387434905</v>
       </c>
       <c r="L7" t="n">
-        <v>40.011878511715764</v>
+        <v>40.01186171541273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.464176519433E14</v>
+        <v>1.473751943215E14</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -393,33 +412,33 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6.492215158649536</v>
+        <v>5.552225570596106</v>
       </c>
       <c r="F8" t="n">
-        <v>2.3973612398921627</v>
+        <v>2.1069589976937024</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3973612398921627</v>
+        <v>2.1069589976937024</v>
       </c>
       <c r="H8" t="n">
-        <v>1876.963075160099</v>
+        <v>1631.5825076784515</v>
       </c>
       <c r="I8" t="n">
         <v>2.0</v>
       </c>
       <c r="J8" t="n">
-        <v>5884.729645949719</v>
+        <v>5115.373350550184</v>
       </c>
       <c r="K8" t="n">
-        <v>-74.96781426273525</v>
+        <v>-74.96782729227405</v>
       </c>
       <c r="L8" t="n">
-        <v>40.011897623054985</v>
+        <v>40.011878511715764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.464197224241E14</v>
+        <v>1.473772362279E14</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -431,33 +450,33 @@
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>7.26757578014983</v>
+        <v>6.2693530949100875</v>
       </c>
       <c r="F9" t="n">
-        <v>3.425566038091267</v>
+        <v>2.3973612398921627</v>
       </c>
       <c r="G9" t="n">
-        <v>3.425566038091267</v>
+        <v>2.3973612398921627</v>
       </c>
       <c r="H9" t="n">
-        <v>2087.106561128021</v>
+        <v>1746.6226032875584</v>
       </c>
       <c r="I9" t="n">
         <v>2.0</v>
       </c>
       <c r="J9" t="n">
-        <v>6543.604042666603</v>
+        <v>5476.068643918375</v>
       </c>
       <c r="K9" t="n">
-        <v>-74.96779564495328</v>
+        <v>-74.96781426273525</v>
       </c>
       <c r="L9" t="n">
-        <v>40.011924931062765</v>
+        <v>40.011897623054985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.464217681934E14</v>
+        <v>1.473792587952E14</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -469,33 +488,33 @@
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>8.056031285465044</v>
+        <v>7.032820895722883</v>
       </c>
       <c r="F10" t="n">
-        <v>3.101402917232321</v>
+        <v>2.6996054511967547</v>
       </c>
       <c r="G10" t="n">
-        <v>3.101402917232321</v>
+        <v>2.6996054511967547</v>
       </c>
       <c r="H10" t="n">
-        <v>2055.095843222444</v>
+        <v>1686.1849076872852</v>
       </c>
       <c r="I10" t="n">
         <v>2.0</v>
       </c>
       <c r="J10" t="n">
-        <v>6443.2480974642485</v>
+        <v>5286.585646431939</v>
       </c>
       <c r="K10" t="n">
-        <v>-74.96777878898047</v>
+        <v>-74.9677995905133</v>
       </c>
       <c r="L10" t="n">
-        <v>40.01194965490137</v>
+        <v>40.01191914383292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.464238100511E14</v>
+        <v>1.473812909368E14</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -507,33 +526,33 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8.792041168599576</v>
+        <v>7.848676018022281</v>
       </c>
       <c r="F11" t="n">
-        <v>3.413512336851347</v>
+        <v>3.0226438934640476</v>
       </c>
       <c r="G11" t="n">
-        <v>3.413512336851347</v>
+        <v>3.0226438934640476</v>
       </c>
       <c r="H11" t="n">
-        <v>1832.4474933324022</v>
+        <v>1993.6272647488047</v>
       </c>
       <c r="I11" t="n">
         <v>2.0</v>
       </c>
       <c r="J11" t="n">
-        <v>5745.181927280356</v>
+        <v>6250.522712744014</v>
       </c>
       <c r="K11" t="n">
-        <v>-74.96776023670674</v>
+        <v>-74.96778316259223</v>
       </c>
       <c r="L11" t="n">
-        <v>40.01197686682361</v>
+        <v>40.01194323981798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.464258420114E14</v>
+        <v>1.473833250032E14</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -545,33 +564,33 @@
         <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>8.770414356775769</v>
+        <v>8.632584200491012</v>
       </c>
       <c r="F12" t="n">
-        <v>3.5082272784150756</v>
+        <v>3.3399921429386974</v>
       </c>
       <c r="G12" t="n">
-        <v>3.5082272784150756</v>
+        <v>3.3399921429386974</v>
       </c>
       <c r="H12" t="n">
-        <v>1134.906876090638</v>
+        <v>1660.7826496970622</v>
       </c>
       <c r="I12" t="n">
         <v>2.0</v>
       </c>
       <c r="J12" t="n">
-        <v>3558.1716634738045</v>
+        <v>5206.95703328565</v>
       </c>
       <c r="K12" t="n">
-        <v>-74.96774116966026</v>
+        <v>-74.96776500989756</v>
       </c>
       <c r="L12" t="n">
-        <v>40.01200483379918</v>
+        <v>40.01196986564955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.464278755117E14</v>
+        <v>1.473853641605E14</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -583,33 +602,33 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8.817156355795637</v>
+        <v>8.770414356775769</v>
       </c>
       <c r="F13" t="n">
-        <v>3.504401561062847</v>
+        <v>4.386467082990503</v>
       </c>
       <c r="G13" t="n">
-        <v>3.504401561062847</v>
+        <v>4.386467082990503</v>
       </c>
       <c r="H13" t="n">
-        <v>934.6388455902903</v>
+        <v>1134.906876090638</v>
       </c>
       <c r="I13" t="n">
         <v>2.0</v>
       </c>
       <c r="J13" t="n">
-        <v>2930.26856503076</v>
+        <v>3558.1716634738045</v>
       </c>
       <c r="K13" t="n">
-        <v>-74.9677221234047</v>
+        <v>-74.96774116966026</v>
       </c>
       <c r="L13" t="n">
-        <v>40.012032770279255</v>
+        <v>40.01200483379918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.464299002832E14</v>
+        <v>1.473873954496E14</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -621,33 +640,33 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8.740330329435134</v>
+        <v>8.817156355795637</v>
       </c>
       <c r="F14" t="n">
-        <v>3.488617655855452</v>
+        <v>3.504401561062847</v>
       </c>
       <c r="G14" t="n">
-        <v>3.488617655855452</v>
+        <v>3.504401561062847</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>934.6388455902903</v>
       </c>
       <c r="I14" t="n">
         <v>2.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>2930.26856503076</v>
       </c>
       <c r="K14" t="n">
-        <v>-74.96770316293225</v>
+        <v>-74.9677221234047</v>
       </c>
       <c r="L14" t="n">
-        <v>40.01206058093521</v>
+        <v>40.012032770279255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.46431956713E14</v>
+        <v>1.473894230973E14</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -659,33 +678,33 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8.778379444389325</v>
+        <v>8.740330329435134</v>
       </c>
       <c r="F15" t="n">
-        <v>3.507889229701484</v>
+        <v>3.488617655855452</v>
       </c>
       <c r="G15" t="n">
-        <v>3.507889229701484</v>
+        <v>3.488617655855452</v>
       </c>
       <c r="H15" t="n">
-        <v>797.3732061986985</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
       </c>
       <c r="J15" t="n">
-        <v>2499.897106458778</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>-74.96768409771803</v>
+        <v>-74.96770316293225</v>
       </c>
       <c r="L15" t="n">
-        <v>40.01208854522327</v>
+        <v>40.01206058093521</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.464339800261E14</v>
+        <v>1.473914509531E14</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -697,33 +716,33 @@
         <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>8.799452454417665</v>
+        <v>8.778379444389325</v>
       </c>
       <c r="F16" t="n">
-        <v>3.5108263695012516</v>
+        <v>3.507889229701484</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5108263695012516</v>
+        <v>3.507889229701484</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>797.3732061986985</v>
       </c>
       <c r="I16" t="n">
         <v>2.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>2499.897106458778</v>
       </c>
       <c r="K16" t="n">
-        <v>-74.96766501653893</v>
+        <v>-74.96768409771803</v>
       </c>
       <c r="L16" t="n">
-        <v>40.012116532928154</v>
+        <v>40.01208854522327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.464360394809E14</v>
+        <v>1.473934756666E14</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -735,33 +754,33 @@
         <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>8.791312082428671</v>
+        <v>8.799452454417665</v>
       </c>
       <c r="F17" t="n">
-        <v>3.50158784920055</v>
+        <v>3.5108263695012516</v>
       </c>
       <c r="G17" t="n">
-        <v>3.50158784920055</v>
+        <v>3.5108263695012516</v>
       </c>
       <c r="H17" t="n">
-        <v>1287.7319259407168</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
       </c>
       <c r="J17" t="n">
-        <v>4037.3266304179915</v>
+        <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>-74.96764598556908</v>
+        <v>-74.96766501653893</v>
       </c>
       <c r="L17" t="n">
-        <v>40.01214444698759</v>
+        <v>40.012116532928154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.464380639048E14</v>
+        <v>1.473954994778E14</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -773,33 +792,33 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>8.824271059746575</v>
+        <v>8.791312082428671</v>
       </c>
       <c r="F18" t="n">
-        <v>3.4926407129027357</v>
+        <v>3.50158784920055</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4926407129027357</v>
+        <v>3.50158784920055</v>
       </c>
       <c r="H18" t="n">
-        <v>1411.980288325776</v>
+        <v>1287.7319259407168</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
       </c>
       <c r="J18" t="n">
-        <v>4426.884764319793</v>
+        <v>4037.3266304179915</v>
       </c>
       <c r="K18" t="n">
-        <v>-74.96762700322485</v>
+        <v>-74.96764598556908</v>
       </c>
       <c r="L18" t="n">
-        <v>40.012172289724425</v>
+        <v>40.01214444698759</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.46440096387E14</v>
+        <v>1.473975257391E14</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -811,33 +830,33 @@
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>8.738723875603359</v>
+        <v>8.824271059746575</v>
       </c>
       <c r="F19" t="n">
-        <v>3.511148945627756</v>
+        <v>3.4926407129027357</v>
       </c>
       <c r="G19" t="n">
-        <v>3.511148945627756</v>
+        <v>3.4926407129027357</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>1411.980288325776</v>
       </c>
       <c r="I19" t="n">
         <v>2.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>4426.884764319793</v>
       </c>
       <c r="K19" t="n">
-        <v>-74.96760792028753</v>
+        <v>-74.96762700322485</v>
       </c>
       <c r="L19" t="n">
-        <v>40.012200280008194</v>
+        <v>40.012172289724425</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.464421265614E14</v>
+        <v>1.473995761092E14</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -849,33 +868,33 @@
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>8.81155222660182</v>
+        <v>8.738723875603359</v>
       </c>
       <c r="F20" t="n">
-        <v>3.5153422424044103</v>
+        <v>3.511148945627756</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5153422424044103</v>
+        <v>3.511148945627756</v>
       </c>
       <c r="H20" t="n">
-        <v>586.4806554491144</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>2.0</v>
       </c>
       <c r="J20" t="n">
-        <v>1838.6826636701107</v>
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>-74.96758881455817</v>
+        <v>-74.96760792028753</v>
       </c>
       <c r="L20" t="n">
-        <v>40.01222830372267</v>
+        <v>40.012200280008194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.464441602401E14</v>
+        <v>1.474016044827E14</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -887,33 +906,33 @@
         <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>8.719454836403207</v>
+        <v>8.81155222660182</v>
       </c>
       <c r="F21" t="n">
-        <v>4.378583760109795</v>
+        <v>3.5153422424044103</v>
       </c>
       <c r="G21" t="n">
-        <v>4.378583760109795</v>
+        <v>3.5153422424044103</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>586.4806554491144</v>
       </c>
       <c r="I21" t="n">
         <v>2.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>1838.6826636701107</v>
       </c>
       <c r="K21" t="n">
-        <v>-74.96756501714704</v>
+        <v>-74.96758881455817</v>
       </c>
       <c r="L21" t="n">
-        <v>40.012263209056144</v>
+        <v>40.01222830372267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.464462074552E14</v>
+        <v>1.474036304607E14</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -925,33 +944,33 @@
         <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>8.76178209472932</v>
+        <v>8.774014896003251</v>
       </c>
       <c r="F22" t="n">
-        <v>3.5016170817354406</v>
+        <v>3.5075954099998348</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5016170817354406</v>
+        <v>3.5075954099998348</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>506.7270841829415</v>
       </c>
       <c r="I22" t="n">
         <v>2.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>1588.6297080082122</v>
       </c>
       <c r="K22" t="n">
-        <v>-74.96754598600955</v>
+        <v>-74.96756975093082</v>
       </c>
       <c r="L22" t="n">
-        <v>40.01229112336147</v>
+        <v>40.01225626568317</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.464482311983E14</v>
+        <v>1.474056491039E14</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -963,33 +982,33 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>8.753762083104998</v>
+        <v>8.784047852065601</v>
       </c>
       <c r="F23" t="n">
-        <v>3.487843839271593</v>
+        <v>3.4973890781353774</v>
       </c>
       <c r="G23" t="n">
-        <v>3.487843839271593</v>
+        <v>3.4973890781353774</v>
       </c>
       <c r="H23" t="n">
-        <v>819.7946746795412</v>
+        <v>699.970056523364</v>
       </c>
       <c r="I23" t="n">
         <v>2.0</v>
       </c>
       <c r="J23" t="n">
-        <v>2570.1952732861128</v>
+        <v>2194.507528161668</v>
       </c>
       <c r="K23" t="n">
-        <v>-74.96752702972739</v>
+        <v>-74.96755074277276</v>
       </c>
       <c r="L23" t="n">
-        <v>40.01231892787125</v>
+        <v>40.01228414628295</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.464502616895E14</v>
+        <v>1.474076722609E14</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1001,33 +1020,33 @@
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>8.753295678175242</v>
+        <v>8.732737532784418</v>
       </c>
       <c r="F24" t="n">
-        <v>3.4986362581645776</v>
+        <v>3.488645036202735</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4986362581645776</v>
+        <v>3.488645036202735</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>811.0368153562295</v>
       </c>
       <c r="I24" t="n">
         <v>2.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>2542.736434070971</v>
       </c>
       <c r="K24" t="n">
-        <v>-74.96750801478723</v>
+        <v>-74.96753178213655</v>
       </c>
       <c r="L24" t="n">
-        <v>40.01234681841882</v>
+        <v>40.01231195717913</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.464522913949E14</v>
+        <v>1.474096988376E14</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1039,33 +1058,33 @@
         <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>8.730319085656852</v>
+        <v>8.785360602273327</v>
       </c>
       <c r="F25" t="n">
-        <v>3.5061338179203165</v>
+        <v>3.498682923755667</v>
       </c>
       <c r="G25" t="n">
-        <v>3.5061338179203165</v>
+        <v>3.498682923755667</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>872.8537447263365</v>
       </c>
       <c r="I25" t="n">
         <v>2.0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>2736.552487908855</v>
       </c>
       <c r="K25" t="n">
-        <v>-74.96748895909647</v>
+        <v>-74.96751276694317</v>
       </c>
       <c r="L25" t="n">
-        <v>40.012374768738155</v>
+        <v>40.0123398480981</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.46454320889E14</v>
+        <v>1.474117257808E14</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1077,33 +1096,33 @@
         <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>8.810102983648145</v>
+        <v>8.806710828258844</v>
       </c>
       <c r="F26" t="n">
-        <v>3.5088097070089463</v>
+        <v>3.5084290319101448</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5088097070089463</v>
+        <v>3.5084290319101448</v>
       </c>
       <c r="H26" t="n">
-        <v>625.2813379115639</v>
+        <v>887.4138194486393</v>
       </c>
       <c r="I26" t="n">
         <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>1960.3350413282394</v>
+        <v>2782.2031061519433</v>
       </c>
       <c r="K26" t="n">
-        <v>-74.9674698888607</v>
+        <v>-74.96749369877844</v>
       </c>
       <c r="L26" t="n">
-        <v>40.012402740391686</v>
+        <v>40.01236781671388</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.464563507578E14</v>
+        <v>1.474137530918E14</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1115,33 +1134,33 @@
         <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>8.752502826533933</v>
+        <v>8.815788894300535</v>
       </c>
       <c r="F27" t="n">
-        <v>3.48964723462674</v>
+        <v>3.5008401554166775</v>
       </c>
       <c r="G27" t="n">
-        <v>3.48964723462674</v>
+        <v>3.5008401554166775</v>
       </c>
       <c r="H27" t="n">
-        <v>1043.3841590078273</v>
+        <v>936.7347939114336</v>
       </c>
       <c r="I27" t="n">
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>3271.218890993461</v>
+        <v>2936.84001284552</v>
       </c>
       <c r="K27" t="n">
-        <v>-74.96745092277051</v>
+        <v>-74.96747467185727</v>
       </c>
       <c r="L27" t="n">
-        <v>40.01243055928757</v>
+        <v>40.01239572483485</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.464583838818E14</v>
+        <v>1.474157739693E14</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1153,13 +1172,13 @@
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>8.70293114724122</v>
+        <v>8.700748200523854</v>
       </c>
       <c r="F28" t="n">
-        <v>3.508772300507675</v>
+        <v>3.495400999724957</v>
       </c>
       <c r="G28" t="n">
-        <v>3.508772300507675</v>
+        <v>3.495400999724957</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
@@ -1171,15 +1190,15 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>-74.9674318527347</v>
+        <v>-74.96745567449602</v>
       </c>
       <c r="L28" t="n">
-        <v>40.012458530647805</v>
+        <v>40.01242358959821</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.464604105498E14</v>
+        <v>1.474177944025E14</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1191,33 +1210,33 @@
         <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>8.731798314920347</v>
+        <v>8.814130558390357</v>
       </c>
       <c r="F29" t="n">
-        <v>3.488310248967562</v>
+        <v>3.513724102554277</v>
       </c>
       <c r="G29" t="n">
-        <v>3.488310248967562</v>
+        <v>3.513724102554277</v>
       </c>
       <c r="H29" t="n">
-        <v>895.3256745081238</v>
+        <v>837.7166160840418</v>
       </c>
       <c r="I29" t="n">
         <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>2807.008612323022</v>
+        <v>2626.386747200023</v>
       </c>
       <c r="K29" t="n">
-        <v>-74.96741289390766</v>
+        <v>-74.96743657754779</v>
       </c>
       <c r="L29" t="n">
-        <v>40.012486338890334</v>
+        <v>40.012451600432776</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.464624370945E14</v>
+        <v>1.474198179669E14</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1229,13 +1248,13 @@
         <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>8.729148613314797</v>
+        <v>8.700309233097546</v>
       </c>
       <c r="F30" t="n">
-        <v>3.505236265051332</v>
+        <v>3.485426778564258</v>
       </c>
       <c r="G30" t="n">
-        <v>3.505236265051332</v>
+        <v>3.485426778564258</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
@@ -1247,15 +1266,15 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>-74.96739384308673</v>
+        <v>-74.9674176343927</v>
       </c>
       <c r="L30" t="n">
-        <v>40.01251428206675</v>
+        <v>40.012479385688145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.464644587266E14</v>
+        <v>1.474218406927E14</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1267,33 +1286,33 @@
         <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>8.762091164530908</v>
+        <v>8.815610733921826</v>
       </c>
       <c r="F31" t="n">
-        <v>3.50035345627978</v>
+        <v>3.5055010203703847</v>
       </c>
       <c r="G31" t="n">
-        <v>3.50035345627978</v>
+        <v>3.5055010203703847</v>
       </c>
       <c r="H31" t="n">
-        <v>638.8772334325434</v>
+        <v>904.8200906212918</v>
       </c>
       <c r="I31" t="n">
         <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>2002.9620458924142</v>
+        <v>2836.777339831496</v>
       </c>
       <c r="K31" t="n">
-        <v>-74.967374818802</v>
+        <v>-74.96739858213324</v>
       </c>
       <c r="L31" t="n">
-        <v>40.012542186320665</v>
+        <v>40.01250733097454</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.464664864965E14</v>
+        <v>1.474238614269E14</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1305,33 +1324,33 @@
         <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>8.745278420876899</v>
+        <v>8.762091164530908</v>
       </c>
       <c r="F32" t="n">
-        <v>3.508598605500618</v>
+        <v>4.372309433009447</v>
       </c>
       <c r="G32" t="n">
-        <v>3.508598605500618</v>
+        <v>4.372309433009447</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>638.8772334325434</v>
       </c>
       <c r="I32" t="n">
         <v>2.0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>2002.9620458924142</v>
       </c>
       <c r="K32" t="n">
-        <v>-74.96735574970353</v>
+        <v>-74.967374818802</v>
       </c>
       <c r="L32" t="n">
-        <v>40.012570156306026</v>
+        <v>40.012542186320665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.464685815649E14</v>
+        <v>1.47425885034E14</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1343,33 +1362,33 @@
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>8.727944753752277</v>
+        <v>8.745278420876899</v>
       </c>
       <c r="F33" t="n">
-        <v>3.501677242070195</v>
+        <v>3.508598605500618</v>
       </c>
       <c r="G33" t="n">
-        <v>3.501677242070195</v>
+        <v>3.508598605500618</v>
       </c>
       <c r="H33" t="n">
-        <v>561.4358042726029</v>
+        <v>0.0</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
       </c>
       <c r="J33" t="n">
-        <v>1760.1584138736293</v>
+        <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>-74.96733671822074</v>
+        <v>-74.96735574970353</v>
       </c>
       <c r="L33" t="n">
-        <v>40.012598071117836</v>
+        <v>40.012570156306026</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.46470641611E14</v>
+        <v>1.47427901886E14</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1381,33 +1400,33 @@
         <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>8.79639204530064</v>
+        <v>8.727944753752277</v>
       </c>
       <c r="F34" t="n">
-        <v>3.502217069867854</v>
+        <v>3.501677242070195</v>
       </c>
       <c r="G34" t="n">
-        <v>3.502217069867854</v>
+        <v>3.501677242070195</v>
       </c>
       <c r="H34" t="n">
-        <v>1165.844860307494</v>
+        <v>561.4358042726029</v>
       </c>
       <c r="I34" t="n">
         <v>2.0</v>
       </c>
       <c r="J34" t="n">
-        <v>3655.1722399017217</v>
+        <v>1760.1584138736293</v>
       </c>
       <c r="K34" t="n">
-        <v>-74.96731768380234</v>
+        <v>-74.96733671822074</v>
       </c>
       <c r="L34" t="n">
-        <v>40.01262599023551</v>
+        <v>40.012598071117836</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.464726696208E14</v>
+        <v>1.474299255913E14</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1419,33 +1438,33 @@
         <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>8.707619679675158</v>
+        <v>8.79639204530064</v>
       </c>
       <c r="F35" t="n">
-        <v>4.362058327197815</v>
+        <v>3.502217069867854</v>
       </c>
       <c r="G35" t="n">
-        <v>4.362058327197815</v>
+        <v>3.502217069867854</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>1165.844860307494</v>
       </c>
       <c r="I35" t="n">
         <v>2.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>3655.1722399017217</v>
       </c>
       <c r="K35" t="n">
-        <v>-74.96729397617662</v>
+        <v>-74.96731768380234</v>
       </c>
       <c r="L35" t="n">
-        <v>40.012660763874415</v>
+        <v>40.01262599023551</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.464746938131E14</v>
+        <v>1.474319412722E14</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -1457,33 +1476,33 @@
         <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>8.036133518558213</v>
+        <v>8.745837404641975</v>
       </c>
       <c r="F36" t="n">
-        <v>3.2788262592473365</v>
+        <v>3.4922532780723343</v>
       </c>
       <c r="G36" t="n">
-        <v>3.2788262592473365</v>
+        <v>3.4922532780723343</v>
       </c>
       <c r="H36" t="n">
-        <v>1297.8252200857628</v>
+        <v>999.9009060167837</v>
       </c>
       <c r="I36" t="n">
         <v>2.0</v>
       </c>
       <c r="J36" t="n">
-        <v>4068.9654072687567</v>
+        <v>3134.885104975702</v>
       </c>
       <c r="K36" t="n">
-        <v>-74.96727615587544</v>
+        <v>-74.9672987035351</v>
       </c>
       <c r="L36" t="n">
-        <v>40.01268690216114</v>
+        <v>40.01265382992587</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.4647672732E14</v>
+        <v>1.474339688624E14</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -1495,33 +1514,33 @@
         <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>8.292745991497283</v>
+        <v>7.941612412466011</v>
       </c>
       <c r="F37" t="n">
-        <v>3.2868298892917998</v>
+        <v>3.3459011501939986</v>
       </c>
       <c r="G37" t="n">
-        <v>3.2868298892917998</v>
+        <v>3.3459011501939986</v>
       </c>
       <c r="H37" t="n">
-        <v>662.8054737446557</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
         <v>2.0</v>
       </c>
       <c r="J37" t="n">
-        <v>2077.9804054026995</v>
+        <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>-74.96725829207335</v>
+        <v>-74.96728051868472</v>
       </c>
       <c r="L37" t="n">
-        <v>40.0127131042537</v>
+        <v>40.0126805029225</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.464787525157E14</v>
+        <v>1.474359860998E14</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1533,33 +1552,33 @@
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>7.856082810511175</v>
+        <v>8.293236343989282</v>
       </c>
       <c r="F38" t="n">
-        <v>3.1624716455596356</v>
+        <v>3.2611969129265788</v>
       </c>
       <c r="G38" t="n">
-        <v>3.1624716455596356</v>
+        <v>3.2611969129265788</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>1559.615404392068</v>
       </c>
       <c r="I38" t="n">
         <v>2.0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>4889.762698336456</v>
       </c>
       <c r="K38" t="n">
-        <v>-74.96724110415245</v>
+        <v>-74.9672627941973</v>
       </c>
       <c r="L38" t="n">
-        <v>40.012738314983864</v>
+        <v>40.01270650067246</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.464807744809E14</v>
+        <v>1.474380089856E14</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -1571,13 +1590,13 @@
         <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>7.585251524871295</v>
+        <v>7.890762298818965</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0788601396766078</v>
+        <v>3.2060900312943432</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0788601396766078</v>
+        <v>3.2060900312943432</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
@@ -1589,15 +1608,15 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>-74.9672243706558</v>
+        <v>-74.96724536921238</v>
       </c>
       <c r="L39" t="n">
-        <v>40.012762859178075</v>
+        <v>40.01273205912107</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.464828156184E14</v>
+        <v>1.474400326126E14</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1609,13 +1628,13 @@
         <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>7.448183659319903</v>
+        <v>7.686870307213223</v>
       </c>
       <c r="F40" t="n">
-        <v>3.012769516762624</v>
+        <v>3.1059135572377263</v>
       </c>
       <c r="G40" t="n">
-        <v>3.012769516762624</v>
+        <v>3.1059135572377263</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1627,15 +1646,15 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>-74.96720799635813</v>
+        <v>-74.96722848868168</v>
       </c>
       <c r="L40" t="n">
-        <v>40.012786876509956</v>
+        <v>40.01275681898044</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.464848443502E14</v>
+        <v>1.474420682446E14</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1647,13 +1666,13 @@
         <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>7.081237222073124</v>
+        <v>7.480809077535426</v>
       </c>
       <c r="F41" t="n">
-        <v>2.9447713874701873</v>
+        <v>3.0264612924635914</v>
       </c>
       <c r="G41" t="n">
-        <v>2.9447713874701873</v>
+        <v>3.0264612924635914</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -1665,15 +1684,15 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>-74.96719199162672</v>
+        <v>-74.96721203996998</v>
       </c>
       <c r="L41" t="n">
-        <v>40.01281035177303</v>
+        <v>40.012780945460584</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.46486869543E14</v>
+        <v>1.474440949726E14</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1685,33 +1704,33 @@
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>6.70603869491364</v>
+        <v>7.417533571231414</v>
       </c>
       <c r="F42" t="n">
-        <v>2.59455973062</v>
+        <v>2.981425743430476</v>
       </c>
       <c r="G42" t="n">
-        <v>2.59455973062</v>
+        <v>2.981425743430476</v>
       </c>
       <c r="H42" t="n">
-        <v>2121.8537817318215</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
         <v>2.0</v>
       </c>
       <c r="J42" t="n">
-        <v>6652.541656298091</v>
+        <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>-74.96717789028267</v>
+        <v>-74.9671958360237</v>
       </c>
       <c r="L42" t="n">
-        <v>40.01283103520425</v>
+        <v>40.01280471292609</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.46488897344E14</v>
+        <v>1.474461279295E14</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -1720,36 +1739,36 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>6.7098</v>
+        <v>6.44603869491364</v>
       </c>
       <c r="F43" t="n">
-        <v>2.8028601077827466</v>
+        <v>2.6320383771499167</v>
       </c>
       <c r="G43" t="n">
-        <v>2.8028601077827466</v>
+        <v>2.6320383771499167</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>2067.8508554390733</v>
       </c>
       <c r="I43" t="n">
         <v>2.0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>6483.222599678787</v>
       </c>
       <c r="K43" t="n">
-        <v>-74.96716262633457</v>
+        <v>-74.96718153098473</v>
       </c>
       <c r="L43" t="n">
-        <v>40.01285336696317</v>
+        <v>40.012825695130964</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.464909249829E14</v>
+        <v>1.474481548914E14</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -1758,36 +1777,36 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>6.626201410682593</v>
+        <v>7.159800000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>2.6368066341615655</v>
+        <v>2.8027066186996263</v>
       </c>
       <c r="G44" t="n">
-        <v>2.6368066341615655</v>
+        <v>2.8027066186996263</v>
       </c>
       <c r="H44" t="n">
-        <v>638.236908260979</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
         <v>2.0</v>
       </c>
       <c r="J44" t="n">
-        <v>2000.9334629718549</v>
+        <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>-74.96714387793244</v>
+        <v>-74.96716629836864</v>
       </c>
       <c r="L44" t="n">
-        <v>40.01287223841076</v>
+        <v>40.01284803787831</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.464929471204E14</v>
+        <v>1.474501760949E14</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -1799,33 +1818,33 @@
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>6.68574048401108</v>
+        <v>6.632495043606219</v>
       </c>
       <c r="F45" t="n">
-        <v>2.5793189668843386</v>
+        <v>2.654953553158111</v>
       </c>
       <c r="G45" t="n">
-        <v>2.5793189668843386</v>
+        <v>2.654953553158111</v>
       </c>
       <c r="H45" t="n">
-        <v>658.6861836533627</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
         <v>2.0</v>
       </c>
       <c r="J45" t="n">
-        <v>2065.049041838501</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>-74.96711558979379</v>
+        <v>-74.96714898680581</v>
       </c>
       <c r="L45" t="n">
-        <v>40.01288052461373</v>
+        <v>40.01286789465151</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.464949908171E14</v>
+        <v>1.47452199055E14</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1837,33 +1856,33 @@
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>6.659449230525829</v>
+        <v>6.688212812114694</v>
       </c>
       <c r="F46" t="n">
-        <v>2.602520131349682</v>
+        <v>2.5906463470797827</v>
       </c>
       <c r="G46" t="n">
-        <v>2.602520131349682</v>
+        <v>2.5906463470797827</v>
       </c>
       <c r="H46" t="n">
-        <v>673.178853419083</v>
+        <v>1086.394658808004</v>
       </c>
       <c r="I46" t="n">
         <v>2.0</v>
       </c>
       <c r="J46" t="n">
-        <v>2110.487853499546</v>
+        <v>3406.050181383622</v>
       </c>
       <c r="K46" t="n">
-        <v>-74.96708586469339</v>
+        <v>-74.96712342491956</v>
       </c>
       <c r="L46" t="n">
-        <v>40.01287509470991</v>
+        <v>40.01288052461373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.464970310622E14</v>
+        <v>1.474542278104E14</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -1872,36 +1891,36 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>7.000733728066739</v>
+        <v>6.659351569393371</v>
       </c>
       <c r="F47" t="n">
-        <v>2.6879744915110035</v>
+        <v>2.6140033606843582</v>
       </c>
       <c r="G47" t="n">
-        <v>2.6879744915110035</v>
+        <v>2.6140033606843582</v>
       </c>
       <c r="H47" t="n">
-        <v>1918.3661883623654</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
         <v>2.0</v>
       </c>
       <c r="J47" t="n">
-        <v>6014.54693364229</v>
+        <v>0.0</v>
       </c>
       <c r="K47" t="n">
-        <v>-74.96705832893473</v>
+        <v>-74.96709297693879</v>
       </c>
       <c r="L47" t="n">
-        <v>40.012863280018024</v>
+        <v>40.012877556001555</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.464990772641E14</v>
+        <v>1.474562554423E14</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -1913,33 +1932,33 @@
         <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>7.840616054828464</v>
+        <v>6.786282004574501</v>
       </c>
       <c r="F48" t="n">
-        <v>3.005500198527972</v>
+        <v>2.653641096815809</v>
       </c>
       <c r="G48" t="n">
-        <v>3.005500198527972</v>
+        <v>2.653641096815809</v>
       </c>
       <c r="H48" t="n">
-        <v>2305.7289118822755</v>
+        <v>1786.8744349284793</v>
       </c>
       <c r="I48" t="n">
         <v>2.0</v>
       </c>
       <c r="J48" t="n">
-        <v>7229.059840528045</v>
+        <v>5602.2764996537</v>
       </c>
       <c r="K48" t="n">
-        <v>-74.96702850769432</v>
+        <v>-74.96706526678348</v>
       </c>
       <c r="L48" t="n">
-        <v>40.012848826539404</v>
+        <v>40.01286664258937</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.465011014756E14</v>
+        <v>1.474583066521E14</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -1951,33 +1970,33 @@
         <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>8.616722040469943</v>
+        <v>7.5891673409079194</v>
       </c>
       <c r="F49" t="n">
-        <v>3.3171042043762995</v>
+        <v>2.921613840581534</v>
       </c>
       <c r="G49" t="n">
-        <v>3.3171042043762995</v>
+        <v>2.921613840581534</v>
       </c>
       <c r="H49" t="n">
-        <v>2116.4621767241947</v>
+        <v>1615.795572310295</v>
       </c>
       <c r="I49" t="n">
         <v>2.0</v>
       </c>
       <c r="J49" t="n">
-        <v>6635.656083840867</v>
+        <v>5065.898521028282</v>
       </c>
       <c r="K49" t="n">
-        <v>-74.966995594655</v>
+        <v>-74.96703627788106</v>
       </c>
       <c r="L49" t="n">
-        <v>40.012832874556736</v>
+        <v>40.0128525925205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.465031248806E14</v>
+        <v>1.474603322142E14</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -1989,33 +2008,33 @@
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>8.723570856645425</v>
+        <v>8.414321287849637</v>
       </c>
       <c r="F50" t="n">
-        <v>3.4901654233010757</v>
+        <v>3.2395877014759575</v>
       </c>
       <c r="G50" t="n">
-        <v>3.4901654233010757</v>
+        <v>3.2395877014759575</v>
       </c>
       <c r="H50" t="n">
-        <v>714.9778094891215</v>
+        <v>2220.7796179316265</v>
       </c>
       <c r="I50" t="n">
         <v>2.0</v>
       </c>
       <c r="J50" t="n">
-        <v>2241.5610405033945</v>
+        <v>6962.7223728798235</v>
       </c>
       <c r="K50" t="n">
-        <v>-74.96696096447005</v>
+        <v>-74.96700413397625</v>
       </c>
       <c r="L50" t="n">
-        <v>40.01281609032405</v>
+        <v>40.01283701331473</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.465051574252E14</v>
+        <v>1.474623611456E14</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -2027,33 +2046,33 @@
         <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>8.754393400843442</v>
+        <v>8.723570856645425</v>
       </c>
       <c r="F51" t="n">
-        <v>4.373449868153482</v>
+        <v>4.350791508148378</v>
       </c>
       <c r="G51" t="n">
-        <v>4.373449868153482</v>
+        <v>4.350791508148378</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0</v>
+        <v>714.9778094891215</v>
       </c>
       <c r="I51" t="n">
         <v>2.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>2241.5610405033945</v>
       </c>
       <c r="K51" t="n">
-        <v>-74.96691757015215</v>
+        <v>-74.96696096447005</v>
       </c>
       <c r="L51" t="n">
-        <v>40.01279505837376</v>
+        <v>40.01281609032405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.465071814642E14</v>
+        <v>1.474643835666E14</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -2065,33 +2084,33 @@
         <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>8.73292090733787</v>
+        <v>8.79033519784473</v>
       </c>
       <c r="F52" t="n">
-        <v>3.487924182680013</v>
+        <v>3.4990730169810376</v>
       </c>
       <c r="G52" t="n">
-        <v>3.487924182680013</v>
+        <v>3.4990730169810376</v>
       </c>
       <c r="H52" t="n">
-        <v>795.1158321966634</v>
+        <v>1221.922182223377</v>
       </c>
       <c r="I52" t="n">
         <v>2.0</v>
       </c>
       <c r="J52" t="n">
-        <v>2492.8191266426566</v>
+        <v>3830.9922967578236</v>
       </c>
       <c r="K52" t="n">
-        <v>-74.96688296221896</v>
+        <v>-74.9669262459081</v>
       </c>
       <c r="L52" t="n">
-        <v>40.01277828492586</v>
+        <v>40.01279926325764</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.46509211027E14</v>
+        <v>1.474664133634E14</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -2103,13 +2122,13 @@
         <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>8.727534025779647</v>
+        <v>8.715238381875865</v>
       </c>
       <c r="F53" t="n">
-        <v>3.5033686198098395</v>
+        <v>3.490068672091832</v>
       </c>
       <c r="G53" t="n">
-        <v>3.5033686198098395</v>
+        <v>3.490068672091832</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
@@ -2121,15 +2140,15 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="n">
-        <v>-74.96684820104886</v>
+        <v>-74.9668916166953</v>
       </c>
       <c r="L53" t="n">
-        <v>40.01276143720853</v>
+        <v>40.01278247949614</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.465112416163E14</v>
+        <v>1.474684343112E14</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -2141,33 +2160,33 @@
         <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>8.745623808959685</v>
+        <v>8.776941037918627</v>
       </c>
       <c r="F54" t="n">
-        <v>3.5078706298533366</v>
+        <v>3.503906499761323</v>
       </c>
       <c r="G54" t="n">
-        <v>3.5078706298533366</v>
+        <v>3.503906499761323</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0</v>
+        <v>811.7533894077137</v>
       </c>
       <c r="I54" t="n">
         <v>2.0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0</v>
+        <v>2544.983508557741</v>
       </c>
       <c r="K54" t="n">
-        <v>-74.966813395215</v>
+        <v>-74.96685685018672</v>
       </c>
       <c r="L54" t="n">
-        <v>40.01274456784399</v>
+        <v>40.0127656291914</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.465132844451E14</v>
+        <v>1.474704615287E14</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
@@ -2179,33 +2198,33 @@
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>8.82301468580747</v>
+        <v>8.822875091713108</v>
       </c>
       <c r="F55" t="n">
-        <v>3.5020978622684114</v>
+        <v>3.5060636925508084</v>
       </c>
       <c r="G55" t="n">
-        <v>3.5020978622684114</v>
+        <v>3.5060636925508084</v>
       </c>
       <c r="H55" t="n">
-        <v>1467.6205818058536</v>
+        <v>1013.7440332266889</v>
       </c>
       <c r="I55" t="n">
         <v>2.0</v>
       </c>
       <c r="J55" t="n">
-        <v>4601.334641102313</v>
+        <v>3178.288354596367</v>
       </c>
       <c r="K55" t="n">
-        <v>-74.96677864666589</v>
+        <v>-74.96682206228014</v>
       </c>
       <c r="L55" t="n">
-        <v>40.012727726243675</v>
+        <v>40.01274876851569</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.465153177398E14</v>
+        <v>1.474724773558E14</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -2217,33 +2236,33 @@
         <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>8.714964234365803</v>
+        <v>8.713864374656882</v>
       </c>
       <c r="F56" t="n">
-        <v>3.488830209735792</v>
+        <v>3.4943680078931374</v>
       </c>
       <c r="G56" t="n">
-        <v>3.488830209735792</v>
+        <v>3.4943680078931374</v>
       </c>
       <c r="H56" t="n">
-        <v>594.2632602916101</v>
+        <v>0.0</v>
       </c>
       <c r="I56" t="n">
         <v>2.0</v>
       </c>
       <c r="J56" t="n">
-        <v>1863.0827387986474</v>
+        <v>0.0</v>
       </c>
       <c r="K56" t="n">
-        <v>-74.96674402976728</v>
+        <v>-74.96678739042673</v>
       </c>
       <c r="L56" t="n">
-        <v>40.012710948450504</v>
+        <v>40.01273196408753</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.465173442563E14</v>
+        <v>1.474745062656E14</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -2255,28 +2274,2093 @@
         <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>8.812660505441205</v>
+        <v>8.724960493948497</v>
       </c>
       <c r="F57" t="n">
-        <v>3.5127442831948135</v>
+        <v>3.4996219956476557</v>
       </c>
       <c r="G57" t="n">
-        <v>3.5127442831948135</v>
+        <v>3.4996219956476557</v>
       </c>
       <c r="H57" t="n">
-        <v>578.4685178596742</v>
+        <v>0.0</v>
       </c>
       <c r="I57" t="n">
         <v>2.0</v>
       </c>
       <c r="J57" t="n">
-        <v>1813.5620922826874</v>
+        <v>0.0</v>
       </c>
       <c r="K57" t="n">
-        <v>-74.96670917559442</v>
+        <v>-74.96675266644826</v>
       </c>
       <c r="L57" t="n">
-        <v>40.01269405565746</v>
+        <v>40.01271513439589</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.474765405602E14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8.824735025167652</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.5029863498762213</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.5029863498762213</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1316.297426459564</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4126.888785823826</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-74.96671790909409</v>
+      </c>
+      <c r="L58" t="n">
+        <v>40.01269828852803</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.474785685533E14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.70964994896222</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.4992699589993346</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.4992699589993346</v>
+      </c>
+      <c r="H59" t="n">
+        <v>685.8868550598387</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2150.3515903951265</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-74.96668318862083</v>
+      </c>
+      <c r="L59" t="n">
+        <v>40.01268146053527</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.474805934959E14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8.734459308784176</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.4973314573131957</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.4973314573131957</v>
+      </c>
+      <c r="H60" t="n">
+        <v>621.4916307597019</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1948.4524491573256</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-74.96664848738789</v>
+      </c>
+      <c r="L60" t="n">
+        <v>40.012664641867715</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.474826201076E14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.805096763118822</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.497677953642668</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.497677953642668</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1412.1254895331283</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4427.3398484984355</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-74.96661378272306</v>
+      </c>
+      <c r="L61" t="n">
+        <v>40.012647821536824</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.474846349646E14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8.827912350909505</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.5115444822994055</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.5115444822994055</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1322.5998386405033</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4146.648865626367</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-74.96657894047787</v>
+      </c>
+      <c r="L62" t="n">
+        <v>40.012630934524786</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.474866521802E14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8.7671011527583</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.5103274276974075</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.5103274276974075</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-74.96654411031469</v>
+      </c>
+      <c r="L63" t="n">
+        <v>40.01261405336854</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.474886805197E14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8.755678708644306</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3.5099088291908007</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.5099088291908007</v>
+      </c>
+      <c r="H64" t="n">
+        <v>520.3332937875738</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1631.2893100849199</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-74.96650928431109</v>
+      </c>
+      <c r="L64" t="n">
+        <v>40.01259717422832</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.474907085031E14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8.81048194307154</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.50815728349758</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.50815728349758</v>
+      </c>
+      <c r="H65" t="n">
+        <v>975.1692319495622</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3057.344064904159</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-74.9664744756928</v>
+      </c>
+      <c r="L65" t="n">
+        <v>40.01258030351424</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.474927342602E14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8.729605655600503</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.5058542073437517</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3.5058542073437517</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-74.96643968993223</v>
+      </c>
+      <c r="L66" t="n">
+        <v>40.01256344387864</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.47494758789E14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8.805728385958542</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.504875894441118</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.504875894441118</v>
+      </c>
+      <c r="H67" t="n">
+        <v>632.8198553310323</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1983.970635392511</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-74.9664049138848</v>
+      </c>
+      <c r="L67" t="n">
+        <v>40.0125465889507</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.474967828854E14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8.801690233887825</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3.5139076551228516</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.5139076551228516</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1124.7403165540711</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3526.296563370701</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-74.96637004822867</v>
+      </c>
+      <c r="L68" t="n">
+        <v>40.01252969059206</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.474988083514E14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8.811810227777064</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3.509055334311571</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3.509055334311571</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1195.0380312484629</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3746.7021829641403</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-74.96633523072434</v>
+      </c>
+      <c r="L69" t="n">
+        <v>40.01251281557119</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.475008238406E14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8.821495544999093</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.504704891623637</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3.504704891623637</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1516.1248391125007</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4753.410789077941</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-74.96630045639205</v>
+      </c>
+      <c r="L70" t="n">
+        <v>40.012495961474535</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.475028553949E14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="n">
+        <v>8.78524928937219</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4.351670821667041</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.351670821667041</v>
+      </c>
+      <c r="H71" t="n">
+        <v>807.9617656209207</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2533.0956436575393</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-74.96625727831517</v>
+      </c>
+      <c r="L71" t="n">
+        <v>40.0124750343299</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.475049086144E14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="n">
+        <v>8.430560409797224</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.4380925305330288</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.4380925305330288</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-74.96622316493651</v>
+      </c>
+      <c r="L72" t="n">
+        <v>40.01245850057804</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.475069540201E14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8.253818983161837</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.333613689135162</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.333613689135162</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-74.96619008822152</v>
+      </c>
+      <c r="L73" t="n">
+        <v>40.012442469266595</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.475089793896E14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8.039484005243882</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3.25293881516095</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3.25293881516095</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-74.96615781198251</v>
+      </c>
+      <c r="L74" t="n">
+        <v>40.01242682592232</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.475109984002E14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7.851833196373505</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.188806501868139</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3.188806501868139</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-74.96612617208089</v>
+      </c>
+      <c r="L75" t="n">
+        <v>40.012411490992065</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.475130143725E14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.184081668282551</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.611513012281545</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.611513012281545</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-74.96610026190382</v>
+      </c>
+      <c r="L76" t="n">
+        <v>40.012398930187985</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.475150336677E14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7.22408166828255</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.7314367891584643</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.7314367891584643</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2230.462369606515</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>6993.069319287543</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-74.96607317010016</v>
+      </c>
+      <c r="L77" t="n">
+        <v>40.0123857826665</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.475170496913E14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.802124080551509</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.77892537601769</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.77892537601769</v>
+      </c>
+      <c r="H78" t="n">
+        <v>634.692061149526</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1989.8211407967328</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-74.96604435451843</v>
+      </c>
+      <c r="L78" t="n">
+        <v>40.01237405712229</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.475190765553E14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.802833787797205</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.684140153914059</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.684140153914059</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-74.96601325187947</v>
+      </c>
+      <c r="L79" t="n">
+        <v>40.012370155697276</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.47521097542E14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6.886783987780288</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.6646589623439243</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.6646589623439243</v>
+      </c>
+      <c r="H80" t="n">
+        <v>963.0085459117047</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3019.197882315965</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-74.96598540082711</v>
+      </c>
+      <c r="L80" t="n">
+        <v>40.012381075538244</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.475231133428E14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6.8287483108841815</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.7251435893211213</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.7251435893211213</v>
+      </c>
+      <c r="H81" t="n">
+        <v>777.4963471113598</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2437.5579496942105</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-74.96596529388299</v>
+      </c>
+      <c r="L81" t="n">
+        <v>40.01240014047919</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.475251352028E14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="n">
+        <v>7.624523189441021</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.9340318340652614</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.9340318340652614</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1673.7326879071143</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5247.550021253562</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-74.96594669518167</v>
+      </c>
+      <c r="L82" t="n">
+        <v>40.012422351414514</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.475271567791E14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8.493624386471417</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.255538648743158</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3.255538648743158</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2305.5011047668927</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>7228.35170394672</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-74.96592605846045</v>
+      </c>
+      <c r="L83" t="n">
+        <v>40.01244699619335</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.475291862289E14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="n">
+        <v>9.307343298241683</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.415297780417505</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.415297780417505</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2450.199264876047</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>7682.033161393379</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-74.96590479647256</v>
+      </c>
+      <c r="L84" t="n">
+        <v>40.01247303829738</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.475312012625E14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10.197936645714286</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.950249850159668</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.950249850159668</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2222.542307683648</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6968.2636929481105</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-74.96588121273803</v>
+      </c>
+      <c r="L85" t="n">
+        <v>40.01250362897963</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.47533216394E14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.911818407437016</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4.266715397753412</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.266715397753412</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1902.8419551336465</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5965.907182833585</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-74.96585573964158</v>
+      </c>
+      <c r="L86" t="n">
+        <v>40.012536670370835</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.475352395529E14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.690121372850328</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4.5448586732916985</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4.5448586732916985</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2773.7425103368923</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8696.460329370715</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-74.96582860597378</v>
+      </c>
+      <c r="L87" t="n">
+        <v>40.01257186570468</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.475372651431E14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" t="n">
+        <v>12.545732047591073</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4.86808704521456</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.86808704521456</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3388.267187190172</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10623.193965596996</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-74.9657995425673</v>
+      </c>
+      <c r="L88" t="n">
+        <v>40.01260956412056</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.475392947219E14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" t="n">
+        <v>13.288328543038286</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5.1966493466577255</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.1966493466577255</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2689.3847053169425</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>8431.980269101587</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-74.96576851757675</v>
+      </c>
+      <c r="L89" t="n">
+        <v>40.01264980692546</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.475413183183E14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="n">
+        <v>14.141723805925055</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5.518442712812966</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.518442712812966</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3172.1254098480103</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>9945.528216234376</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-74.96573557141308</v>
+      </c>
+      <c r="L90" t="n">
+        <v>40.012692541701945</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.475433523138E14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" t="n">
+        <v>15.139977083197508</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.358872557225535</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.358872557225535</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3390.3674707522387</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10629.789092720865</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-74.9656916375212</v>
+      </c>
+      <c r="L91" t="n">
+        <v>40.01274952876328</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.475453734037E14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15.930236058466315</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6.246247122164983</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6.246247122164983</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3657.9227044094423</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11468.661006494662</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-74.96565434621084</v>
+      </c>
+      <c r="L92" t="n">
+        <v>40.01279789967011</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.475474051144E14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" t="n">
+        <v>16.679674522265046</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6.547982164704564</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.547982164704564</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3611.6122832072247</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11323.464345009228</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-74.96561525347624</v>
+      </c>
+      <c r="L93" t="n">
+        <v>40.012848607221144</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.475494349695E14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="n">
+        <v>17.38336088994816</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6.8352302847597155</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6.8352302847597155</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3724.3094049668775</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>11676.805973082464</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-74.96557444580615</v>
+      </c>
+      <c r="L94" t="n">
+        <v>40.012901539230995</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.475514494052E14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" t="n">
+        <v>17.544521693400853</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7.024237201755826</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7.024237201755826</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-74.96553250971905</v>
+      </c>
+      <c r="L95" t="n">
+        <v>40.0129559349211</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.475534723396E14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="n">
+        <v>17.614885170664454</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7.038834987936273</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7.038834987936273</v>
+      </c>
+      <c r="H96" t="n">
+        <v>541.3355985543108</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1697.178190980832</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-74.96549048647161</v>
+      </c>
+      <c r="L96" t="n">
+        <v>40.0130104436677</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.475555078928E14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="n">
+        <v>17.634495942513272</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7.032628756298578</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7.032628756298578</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1394.263556288335</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4371.376643782548</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-74.96544850026794</v>
+      </c>
+      <c r="L97" t="n">
+        <v>40.01306490436447</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.475575375405E14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="n">
+        <v>17.6257173021066</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.086674475431975</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7.086674475431975</v>
+      </c>
+      <c r="H98" t="n">
+        <v>996.24255147335</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3123.4551218143997</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-74.9654058836308</v>
+      </c>
+      <c r="L98" t="n">
+        <v>40.01311964373789</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.475595542198E14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" t="n">
+        <v>17.545678199853096</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7.059898669380522</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7.059898669380522</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-74.96536264825876</v>
+      </c>
+      <c r="L99" t="n">
+        <v>40.01317381573624</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.475615861749E14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="n">
+        <v>17.603938008050715</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7.040320327619134</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7.040320327619134</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-74.96531939182417</v>
+      </c>
+      <c r="L100" t="n">
+        <v>40.013227771379505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.475696263361E14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.25942917413445</v>
+      </c>
+      <c r="F2" t="n">
+        <v>267.71703795700756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>267.71703795700756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1202.615230282393</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3770.3811491447295</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-74.96786817732512</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40.01181854274124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.475716620026E14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.086732096151882</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.1187387864859977</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.1187387864859977</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1204.87751395227</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3777.4862481387045</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-74.96786209703684</v>
+      </c>
+      <c r="L3" t="n">
+        <v>40.01182746112689</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.475736806434E14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.9019103223355165</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.4289042641823966</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.4289042641823966</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1487.132011768429</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4662.454518924769</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-74.96785433101476</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40.01183885209666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.475756994761E14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.686700315472171</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.7576478018364932</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7576478018364932</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1310.6324675670544</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4109.082995657949</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-74.96784477828785</v>
+      </c>
+      <c r="L5" t="n">
+        <v>40.0118528637518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.475777259121E14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.39765230436247</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.0592482014947624</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0592482014947624</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1421.5294783182685</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4456.788934247365</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-74.96783358637751</v>
+      </c>
+      <c r="L6" t="n">
+        <v>40.01186927971237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.475797500267E14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.2087089124824475</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.349546267381643</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.349546267381643</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1842.9603684772176</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5778.1172748948475</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-74.96782081671108</v>
+      </c>
+      <c r="L7" t="n">
+        <v>40.011888009878554</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.47581785766E14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.173555032798516</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.7261823545330124</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.7261823545330124</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2005.223221164486</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6286.872952652382</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-74.96780600004541</v>
+      </c>
+      <c r="L8" t="n">
+        <v>40.01190974252221</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.475838060633E14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.72855632703764</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.0203425497461125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.0203425497461125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1022.5736127437515</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3205.9617485202225</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-74.96778958463251</v>
+      </c>
+      <c r="L9" t="n">
+        <v>40.01193382016066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.475858302059E14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.736296026320323</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.1052884851910507</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.1052884851910507</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-74.96777270754136</v>
+      </c>
+      <c r="L10" t="n">
+        <v>40.011958574975026</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.475878655969E14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.770546825593464</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.8794711027127877</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.8794711027127877</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-74.96775162280366</v>
+      </c>
+      <c r="L11" t="n">
+        <v>40.01198950143994</v>
       </c>
     </row>
   </sheetData>
